--- a/src/main/resources/static/templatefiles/签认电费明细导入模板.xlsx
+++ b/src/main/resources/static/templatefiles/签认电费明细导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18015" tabRatio="348"/>
+    <workbookView windowHeight="18090" tabRatio="348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>区域</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>纯数字</t>
+  </si>
+  <si>
+    <t>纯数字(D列为否时可不填)</t>
   </si>
   <si>
     <t>数值</t>
@@ -127,7 +130,7 @@
 例如</t>
   </si>
   <si>
-    <t>区域-结算运营商-制表时间-自定义序号(三位数字)
+    <t>区域-结算运营商-账期-自定义序号(三位数字)
 例如</t>
   </si>
   <si>
@@ -137,7 +140,7 @@
     <t>移动</t>
   </si>
   <si>
-    <t>巴南-移动-20180611-001</t>
+    <t>巴南-移动-201805-001</t>
   </si>
   <si>
     <t>江津</t>
@@ -150,9 +153,6 @@
   </si>
   <si>
     <t>綦江</t>
-  </si>
-  <si>
-    <t>黔江</t>
   </si>
   <si>
     <t>移动电信</t>
@@ -194,8 +194,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -208,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,36 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -312,6 +282,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -328,28 +329,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -366,31 +366,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,151 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,13 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +604,41 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,45 +672,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,137 +692,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,20 +835,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1218,13 +1224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1249,114 +1255,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>123</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="12">
         <v>10234</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <v>10111</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="15">
         <v>43101</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="15">
         <v>43831</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <v>84654.54</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="16">
         <v>0.152</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="12">
         <v>25468.2</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="12">
         <v>202005</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1369,11 +1375,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr/>
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1455,290 +1461,586 @@
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6">
         <v>43101</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>43501</v>
       </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="7">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="5">
         <v>201805</v>
       </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
         <v>43533</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>43708</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="5">
         <v>201903</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <v>43971</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>43994</v>
       </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="9">
         <v>0.2339</v>
       </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="5">
         <v>202002</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>0.1912</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="5">
         <v>202011</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>0.2541</v>
       </c>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="12:16">
-      <c r="L8" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.7351</v>
       </c>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="12:16">
-      <c r="L9" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="12:16">
-      <c r="L10" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="12:16">
-      <c r="L11" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="12:16">
-      <c r="L12" t="s">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="12:16">
-      <c r="L13" t="s">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="12:16">
-      <c r="L14" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="12:16">
-      <c r="L15" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="12:16">
-      <c r="L16" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="12:16">
-      <c r="L17" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="16:16">
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="16:16">
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="16:16">
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="16:16">
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="16:16">
-      <c r="P22" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="16:16">
-      <c r="P23" s="7"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="16:16">
-      <c r="P24" s="7"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="16:16">
-      <c r="P25" s="7"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="16:16">
-      <c r="P26" s="7"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="16:16">
-      <c r="P27" s="7"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="16:16">
-      <c r="P28" s="7"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="16:16">
-      <c r="P29" s="7"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="16:16">
-      <c r="P30" s="7"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="16:16">
-      <c r="P31" s="7"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="16:16">
-      <c r="P32" s="7"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="16:16">
-      <c r="P33" s="7"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="16:16">
-      <c r="P34" s="7"/>
+      <c r="P34" s="10"/>
     </row>
     <row r="35" spans="16:16">
-      <c r="P35" s="7"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="16:16">
-      <c r="P36" s="7"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="16:16">
-      <c r="P37" s="7"/>
+      <c r="P37" s="10"/>
     </row>
     <row r="38" spans="16:16">
-      <c r="P38" s="7"/>
+      <c r="P38" s="10"/>
     </row>
     <row r="39" spans="16:16">
-      <c r="P39" s="7"/>
+      <c r="P39" s="10"/>
     </row>
     <row r="40" spans="16:16">
-      <c r="P40" s="7"/>
+      <c r="P40" s="10"/>
     </row>
     <row r="41" spans="16:16">
-      <c r="P41" s="7"/>
+      <c r="P41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/templatefiles/签认电费明细导入模板.xlsx
+++ b/src/main/resources/static/templatefiles/签认电费明细导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18090" tabRatio="348"/>
+    <workbookView windowWidth="28800" windowHeight="12615" tabRatio="348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -207,8 +207,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,30 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,99 +350,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -366,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,54 +576,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,21 +606,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -672,6 +619,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,137 +692,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,9 +847,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -859,19 +856,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1255,114 +1243,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>123</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="5">
         <v>10234</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="5">
         <v>10111</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="6">
         <v>43101</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="6">
         <v>43831</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="5">
         <v>84654.54</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="8">
         <v>0.152</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="5">
         <v>25468.2</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="5">
         <v>202005</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1533,7 +1521,7 @@
       <c r="O3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="5">
         <v>201805</v>
       </c>
@@ -1571,7 +1559,7 @@
       <c r="O4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="5">
         <v>201903</v>
       </c>
@@ -1598,14 +1586,14 @@
       <c r="L5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>0.2339</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="5">
         <v>202002</v>
       </c>
@@ -1628,12 +1616,12 @@
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>0.1912</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="8"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="5">
         <v>202011</v>
       </c>
@@ -1659,7 +1647,7 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="8"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
@@ -1683,7 +1671,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="8"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
@@ -1705,7 +1693,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="8"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
@@ -1727,7 +1715,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="8"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
@@ -1749,7 +1737,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
@@ -1771,7 +1759,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="8"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
@@ -1793,7 +1781,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="8"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
@@ -1815,7 +1803,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="8"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
@@ -1837,7 +1825,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="8"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
@@ -1859,7 +1847,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="8"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
@@ -1881,7 +1869,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="8"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
@@ -1901,7 +1889,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="8"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
@@ -1921,7 +1909,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="8"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
@@ -1941,7 +1929,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="8"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
@@ -1961,7 +1949,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="8"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
@@ -1981,66 +1969,66 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="8"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="16:16">
-      <c r="P23" s="10"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="16:16">
-      <c r="P24" s="10"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="16:16">
-      <c r="P25" s="10"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="16:16">
-      <c r="P26" s="10"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="16:16">
-      <c r="P27" s="10"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="16:16">
-      <c r="P28" s="10"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="16:16">
-      <c r="P29" s="10"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="16:16">
-      <c r="P30" s="10"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="16:16">
-      <c r="P31" s="10"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="16:16">
-      <c r="P32" s="10"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="16:16">
-      <c r="P33" s="10"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="16:16">
-      <c r="P34" s="10"/>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" spans="16:16">
-      <c r="P35" s="10"/>
+      <c r="P35" s="9"/>
     </row>
     <row r="36" spans="16:16">
-      <c r="P36" s="10"/>
+      <c r="P36" s="9"/>
     </row>
     <row r="37" spans="16:16">
-      <c r="P37" s="10"/>
+      <c r="P37" s="9"/>
     </row>
     <row r="38" spans="16:16">
-      <c r="P38" s="10"/>
+      <c r="P38" s="9"/>
     </row>
     <row r="39" spans="16:16">
-      <c r="P39" s="10"/>
+      <c r="P39" s="9"/>
     </row>
     <row r="40" spans="16:16">
-      <c r="P40" s="10"/>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="16:16">
-      <c r="P41" s="10"/>
+      <c r="P41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
